--- a/data/trans_orig/P36B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A28A155B-8F08-4F88-90C6-05D0474E8CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19DC0788-7442-43BD-B95F-5BFF1C009FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E260BECB-2854-4774-A679-77E4E6A6E9BA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C2D34C04-8923-4076-B418-8AE6D8954830}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="595">
-  <si>
-    <t>Población según la frecuencia de consumición de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="592">
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -105,1615 +105,1624 @@
     <t>21,85%</t>
   </si>
   <si>
-    <t>18,11%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>0,02%</t>
   </si>
   <si>
+    <t>0,11%</t>
+  </si>
+  <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
     <t>25,86%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
   </si>
   <si>
     <t>31,12%</t>
@@ -1722,58 +1731,52 @@
     <t>29,57%</t>
   </si>
   <si>
-    <t>34,69%</t>
-  </si>
-  <si>
     <t>38,46%</t>
   </si>
   <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>38,06%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>28,56%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>20,37%</t>
   </si>
   <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>25,82%</t>
   </si>
   <si>
     <t>6,4%</t>
@@ -1782,46 +1785,34 @@
     <t>5,41%</t>
   </si>
   <si>
-    <t>7,6%</t>
+    <t>7,48%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
     <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA324EE-B940-46E4-B85B-38EEC4F4563D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E1BA0-18E4-4455-9C8C-DBBFCEFAD24F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2797,13 +2788,13 @@
         <v>495424</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2809,13 @@
         <v>119557</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -2833,13 +2824,13 @@
         <v>59305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>175</v>
@@ -2848,13 +2839,13 @@
         <v>178863</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2860,13 @@
         <v>11621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2884,13 +2875,13 @@
         <v>7518</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -2899,13 +2890,13 @@
         <v>19139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,7 +2952,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2973,13 +2964,13 @@
         <v>99505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>135</v>
@@ -2988,13 +2979,13 @@
         <v>136172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>228</v>
@@ -3003,13 +2994,13 @@
         <v>235677</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3015,13 @@
         <v>239543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>255</v>
@@ -3039,13 +3030,13 @@
         <v>255856</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>481</v>
@@ -3054,13 +3045,13 @@
         <v>495400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3066,13 @@
         <v>247669</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>218</v>
@@ -3090,13 +3081,13 @@
         <v>213432</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>457</v>
@@ -3105,13 +3096,13 @@
         <v>461101</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3117,13 @@
         <v>70333</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -3141,13 +3132,13 @@
         <v>48134</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -3156,13 +3147,13 @@
         <v>118466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3168,13 @@
         <v>8349</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3192,13 +3183,13 @@
         <v>4875</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -3207,13 +3198,13 @@
         <v>13224</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3308,7 @@
         <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3359,7 @@
         <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3374,13 @@
         <v>189975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>161</v>
@@ -3398,13 +3389,13 @@
         <v>176479</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>331</v>
@@ -3413,13 +3404,13 @@
         <v>366453</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3425,13 @@
         <v>39753</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -3449,13 +3440,13 @@
         <v>26847</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -3464,13 +3455,13 @@
         <v>66600</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3476,13 @@
         <v>10673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3500,13 +3491,13 @@
         <v>6347</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -3515,13 +3506,13 @@
         <v>17019</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,7 +3568,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3589,13 +3580,13 @@
         <v>199750</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>210</v>
@@ -3604,13 +3595,13 @@
         <v>240114</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>388</v>
@@ -3619,13 +3610,13 @@
         <v>439864</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3631,13 @@
         <v>153865</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>142</v>
@@ -3655,13 +3646,13 @@
         <v>160942</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>279</v>
@@ -3670,13 +3661,13 @@
         <v>314807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3682,13 @@
         <v>92105</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>61</v>
@@ -3706,13 +3697,13 @@
         <v>72161</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>141</v>
@@ -3721,13 +3712,13 @@
         <v>164266</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3733,13 @@
         <v>22631</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -3757,13 +3748,13 @@
         <v>22388</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -3772,13 +3763,13 @@
         <v>45019</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3784,13 @@
         <v>2041</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3808,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3823,13 +3814,13 @@
         <v>2041</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,7 +3876,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3897,13 +3888,13 @@
         <v>383723</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>456</v>
@@ -3912,13 +3903,13 @@
         <v>542306</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>867</v>
@@ -3927,13 +3918,13 @@
         <v>926029</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3939,13 @@
         <v>134839</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>124</v>
@@ -3963,13 +3954,13 @@
         <v>145379</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>265</v>
@@ -3978,13 +3969,13 @@
         <v>280218</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3990,13 @@
         <v>44022</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -4014,13 +4005,13 @@
         <v>55900</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>92</v>
@@ -4029,13 +4020,13 @@
         <v>99922</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4041,13 @@
         <v>20468</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -4065,10 +4056,10 @@
         <v>20269</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>268</v>
@@ -4086,7 +4077,7 @@
         <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4092,13 @@
         <v>938</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4116,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4131,13 +4122,13 @@
         <v>938</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4196,13 @@
         <v>950074</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H40" s="7">
         <v>1079</v>
@@ -4220,13 +4211,13 @@
         <v>1209170</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>2000</v>
@@ -4235,13 +4226,13 @@
         <v>2159245</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4247,13 @@
         <v>991874</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H41" s="7">
         <v>1034</v>
@@ -4271,13 +4262,13 @@
         <v>1084925</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>1969</v>
@@ -4286,13 +4277,13 @@
         <v>2076800</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4298,13 @@
         <v>1012881</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H42" s="7">
         <v>933</v>
@@ -4322,7 +4313,7 @@
         <v>950747</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>298</v>
@@ -4364,7 +4355,7 @@
         <v>304</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="H43" s="7">
         <v>247</v>
@@ -4373,13 +4364,13 @@
         <v>250515</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M43" s="7">
         <v>607</v>
@@ -4388,13 +4379,13 @@
         <v>622872</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4400,13 @@
         <v>46579</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H44" s="7">
         <v>26</v>
@@ -4424,13 +4415,13 @@
         <v>25788</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="M44" s="7">
         <v>71</v>
@@ -4439,13 +4430,13 @@
         <v>72367</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,7 +4448,7 @@
         <v>3213</v>
       </c>
       <c r="D45" s="7">
-        <v>3373766</v>
+        <v>3373765</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>60</v>
@@ -4501,7 +4492,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4523,7 +4514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E16BE6-E308-4644-9F46-C3E8D0057C4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BE31E2-35FA-46E7-8114-E6F6799A036D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4540,7 +4531,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4647,13 +4638,13 @@
         <v>27362</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -4662,13 +4653,13 @@
         <v>24414</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4677,13 +4668,13 @@
         <v>51775</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4689,13 @@
         <v>114753</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -4713,13 +4704,13 @@
         <v>136611</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -4728,13 +4719,13 @@
         <v>251364</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4740,13 @@
         <v>182160</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -4764,13 +4755,13 @@
         <v>152214</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>167</v>
@@ -4779,13 +4770,13 @@
         <v>334374</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4791,13 @@
         <v>48651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>64</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4815,13 +4806,13 @@
         <v>37588</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -4830,13 +4821,13 @@
         <v>86239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4842,13 @@
         <v>4754</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4866,13 +4857,13 @@
         <v>2441</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4881,13 +4872,13 @@
         <v>7195</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4946,13 @@
         <v>34876</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4970,13 +4961,13 @@
         <v>63391</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -4985,13 +4976,13 @@
         <v>98266</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4997,13 @@
         <v>165786</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -5021,13 +5012,13 @@
         <v>232067</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>348</v>
@@ -5036,13 +5027,13 @@
         <v>397854</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5048,13 @@
         <v>162815</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H12" s="7">
         <v>153</v>
@@ -5072,13 +5063,13 @@
         <v>183575</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M12" s="7">
         <v>268</v>
@@ -5087,13 +5078,13 @@
         <v>346390</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5099,13 @@
         <v>56537</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5123,13 +5114,13 @@
         <v>19544</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -5138,13 +5129,13 @@
         <v>76081</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5150,13 @@
         <v>8382</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5174,13 +5165,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5189,13 +5180,13 @@
         <v>8382</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,7 +5242,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5263,13 +5254,13 @@
         <v>83825</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5278,13 +5269,13 @@
         <v>116530</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>257</v>
@@ -5293,13 +5284,13 @@
         <v>200355</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5305,13 @@
         <v>255398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
@@ -5329,13 +5320,13 @@
         <v>273937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>673</v>
@@ -5344,13 +5335,13 @@
         <v>529334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,28 +5356,28 @@
         <v>173628</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>418</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H18" s="7">
         <v>221</v>
       </c>
       <c r="I18" s="7">
-        <v>160144</v>
+        <v>160143</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>379</v>
@@ -5395,13 +5386,13 @@
         <v>333772</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5407,13 @@
         <v>35025</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>66</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -5431,13 +5422,13 @@
         <v>27381</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -5446,13 +5437,13 @@
         <v>62405</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5458,13 @@
         <v>9376</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5482,13 +5473,13 @@
         <v>3724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -5497,13 +5488,13 @@
         <v>13100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,7 +5521,7 @@
         <v>844</v>
       </c>
       <c r="I21" s="7">
-        <v>581715</v>
+        <v>581714</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5571,13 +5562,13 @@
         <v>138931</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>302</v>
@@ -5586,13 +5577,13 @@
         <v>187393</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>442</v>
@@ -5601,10 +5592,10 @@
         <v>326325</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>448</v>
@@ -5691,10 +5682,10 @@
         <v>461</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M24" s="7">
         <v>429</v>
@@ -5706,10 +5697,10 @@
         <v>463</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5715,13 @@
         <v>37584</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5739,13 +5730,13 @@
         <v>25696</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>471</v>
+        <v>230</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -5754,13 +5745,13 @@
         <v>63280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>472</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5766,13 @@
         <v>58497</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>472</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5790,13 +5781,13 @@
         <v>2107</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>476</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -5805,13 +5796,13 @@
         <v>60604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>479</v>
+        <v>397</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,7 +5858,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5879,13 +5870,13 @@
         <v>195791</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H28" s="7">
         <v>446</v>
@@ -5894,13 +5885,13 @@
         <v>264809</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M28" s="7">
         <v>669</v>
@@ -5909,13 +5900,13 @@
         <v>460600</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5921,13 @@
         <v>246076</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H29" s="7">
         <v>401</v>
@@ -5945,13 +5936,13 @@
         <v>233218</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>672</v>
@@ -5960,13 +5951,13 @@
         <v>479294</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5972,13 @@
         <v>131239</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H30" s="7">
         <v>137</v>
@@ -5996,13 +5987,13 @@
         <v>87087</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M30" s="7">
         <v>277</v>
@@ -6011,13 +6002,13 @@
         <v>218327</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6023,13 @@
         <v>20448</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -6047,13 +6038,13 @@
         <v>7907</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -6062,13 +6053,13 @@
         <v>28355</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>511</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6074,13 @@
         <v>4822</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>515</v>
+        <v>399</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>54</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6098,13 +6089,13 @@
         <v>1864</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>515</v>
+        <v>399</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>273</v>
+        <v>514</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -6113,13 +6104,13 @@
         <v>6687</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>360</v>
+        <v>516</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>519</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6166,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6187,13 +6178,13 @@
         <v>393604</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H34" s="7">
         <v>1108</v>
@@ -6202,13 +6193,13 @@
         <v>702863</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M34" s="7">
         <v>1697</v>
@@ -6217,13 +6208,13 @@
         <v>1096467</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6229,13 @@
         <v>198637</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>296</v>
+        <v>526</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H35" s="7">
         <v>429</v>
@@ -6253,13 +6244,13 @@
         <v>225462</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M35" s="7">
         <v>717</v>
@@ -6268,10 +6259,10 @@
         <v>424099</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>534</v>
@@ -6292,10 +6283,10 @@
         <v>535</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>65</v>
+        <v>536</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
       <c r="H36" s="7">
         <v>145</v>
@@ -6343,10 +6334,10 @@
         <v>543</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>436</v>
+        <v>544</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -6355,13 +6346,13 @@
         <v>16786</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>149</v>
+        <v>547</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M37" s="7">
         <v>49</v>
@@ -6370,13 +6361,13 @@
         <v>34875</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6391,13 +6382,13 @@
         <v>718</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6406,13 +6397,13 @@
         <v>159</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>555</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6421,13 +6412,13 @@
         <v>878</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>554</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6486,13 @@
         <v>874389</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H40" s="7">
         <v>2109</v>
@@ -6513,10 +6504,10 @@
         <v>166</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>38</v>
+        <v>561</v>
       </c>
       <c r="M40" s="7">
         <v>3185</v>
@@ -6525,13 +6516,13 @@
         <v>2233788</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>561</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,13 +6537,13 @@
         <v>1300309</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H41" s="7">
         <v>2077</v>
@@ -6561,13 +6552,13 @@
         <v>1431937</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M41" s="7">
         <v>3392</v>
@@ -6576,13 +6567,13 @@
         <v>2732246</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6597,13 +6588,13 @@
         <v>903335</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H42" s="7">
         <v>1006</v>
@@ -6612,13 +6603,13 @@
         <v>861123</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>575</v>
+        <v>448</v>
       </c>
       <c r="M42" s="7">
         <v>1789</v>
@@ -6627,13 +6618,13 @@
         <v>1764458</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>577</v>
+        <v>24</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6639,13 @@
         <v>216333</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H43" s="7">
         <v>144</v>
@@ -6663,13 +6654,13 @@
         <v>134902</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M43" s="7">
         <v>313</v>
@@ -6678,13 +6669,13 @@
         <v>351235</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>584</v>
+        <v>179</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>586</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,10 +6693,10 @@
         <v>587</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="H44" s="7">
         <v>14</v>
@@ -6714,13 +6705,13 @@
         <v>10296</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M44" s="7">
         <v>42</v>
@@ -6729,13 +6720,13 @@
         <v>96845</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>593</v>
+        <v>515</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>594</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,7 +6768,7 @@
         <v>8721</v>
       </c>
       <c r="N45" s="7">
-        <v>7178572</v>
+        <v>7178571</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -6791,7 +6782,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19DC0788-7442-43BD-B95F-5BFF1C009FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD36B7FC-7904-401D-BCA1-1477EAD0C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C2D34C04-8923-4076-B418-8AE6D8954830}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FCF7659A-27F5-4FF4-A52F-06CF756E25E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="592">
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2015 (Tasa respuesta: 99,44%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="587">
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,1521 +75,1518 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>5,79%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>10,53%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>40,17%</t>
   </si>
   <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
     <t>56,46%</t>
   </si>
   <si>
@@ -1617,9 +1614,6 @@
     <t>71,13%</t>
   </si>
   <si>
-    <t>28,49%</t>
-  </si>
-  <si>
     <t>25,79%</t>
   </si>
   <si>
@@ -1689,9 +1683,6 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
     <t>2,74%</t>
   </si>
   <si>
@@ -1752,9 +1743,6 @@
     <t>38,06%</t>
   </si>
   <si>
-    <t>35,93%</t>
-  </si>
-  <si>
     <t>39,45%</t>
   </si>
   <si>
@@ -1789,9 +1777,6 @@
   </si>
   <si>
     <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
   </si>
   <si>
     <t>4,23%</t>
@@ -2224,7 +2209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E1BA0-18E4-4455-9C8C-DBBFCEFAD24F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F439A8-4820-4D27-B2BF-DD88BE7DB7D1}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2994,13 +2979,13 @@
         <v>235677</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3000,13 @@
         <v>239543</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>255</v>
@@ -3030,13 +3015,13 @@
         <v>255856</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>481</v>
@@ -3045,13 +3030,13 @@
         <v>495400</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3051,13 @@
         <v>247669</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>218</v>
@@ -3081,13 +3066,13 @@
         <v>213432</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>457</v>
@@ -3096,13 +3081,13 @@
         <v>461101</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3102,13 @@
         <v>70333</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -3132,13 +3117,13 @@
         <v>48134</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -3147,13 +3132,13 @@
         <v>118466</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3153,13 @@
         <v>8349</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3183,13 +3168,13 @@
         <v>4875</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -3198,13 +3183,13 @@
         <v>13224</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,7 +3245,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3272,13 +3257,13 @@
         <v>179742</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -3287,13 +3272,13 @@
         <v>198778</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -3302,13 +3287,13 @@
         <v>378520</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3308,13 @@
         <v>224781</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -3338,13 +3323,13 @@
         <v>237323</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>427</v>
@@ -3353,13 +3338,13 @@
         <v>462103</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3359,13 @@
         <v>189975</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>161</v>
@@ -3389,13 +3374,13 @@
         <v>176479</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>331</v>
@@ -3404,13 +3389,13 @@
         <v>366453</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3410,13 @@
         <v>39753</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -3440,13 +3425,13 @@
         <v>26847</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -3455,13 +3440,13 @@
         <v>66600</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3461,13 @@
         <v>10673</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3491,13 +3476,13 @@
         <v>6347</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -3506,13 +3491,13 @@
         <v>17019</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3553,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3580,13 +3565,13 @@
         <v>199750</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>210</v>
@@ -3595,13 +3580,13 @@
         <v>240114</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>388</v>
@@ -3610,13 +3595,13 @@
         <v>439864</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3616,13 @@
         <v>153865</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>142</v>
@@ -3646,13 +3631,13 @@
         <v>160942</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>279</v>
@@ -3661,13 +3646,13 @@
         <v>314807</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3667,13 @@
         <v>92105</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>61</v>
@@ -3697,13 +3682,13 @@
         <v>72161</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>141</v>
@@ -3712,13 +3697,13 @@
         <v>164266</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3718,13 @@
         <v>22631</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -3748,13 +3733,13 @@
         <v>22388</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -3763,13 +3748,13 @@
         <v>45019</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3769,13 @@
         <v>2041</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3799,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3814,13 +3799,13 @@
         <v>2041</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,7 +3861,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3888,13 +3873,13 @@
         <v>383723</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>456</v>
@@ -3903,13 +3888,13 @@
         <v>542306</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>867</v>
@@ -3918,13 +3903,13 @@
         <v>926029</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3924,13 @@
         <v>134839</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>124</v>
@@ -3954,13 +3939,13 @@
         <v>145379</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>265</v>
@@ -3969,13 +3954,13 @@
         <v>280218</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3975,13 @@
         <v>44022</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>47</v>
@@ -4005,13 +3990,13 @@
         <v>55900</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>92</v>
@@ -4020,13 +4005,13 @@
         <v>99922</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4026,13 @@
         <v>20468</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -4056,13 +4041,13 @@
         <v>20269</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -4071,13 +4056,13 @@
         <v>40737</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4077,13 @@
         <v>938</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4107,13 +4092,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="L38" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4122,13 +4107,13 @@
         <v>938</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4181,13 @@
         <v>950074</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>1079</v>
@@ -4211,13 +4196,13 @@
         <v>1209170</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>2000</v>
@@ -4226,13 +4211,13 @@
         <v>2159245</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4232,13 @@
         <v>991874</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>1034</v>
@@ -4262,13 +4247,13 @@
         <v>1084925</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>1969</v>
@@ -4277,13 +4262,13 @@
         <v>2076800</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4283,13 @@
         <v>1012881</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>933</v>
@@ -4313,13 +4298,13 @@
         <v>950747</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>1885</v>
@@ -4328,13 +4313,13 @@
         <v>1963628</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4334,13 @@
         <v>372357</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="H43" s="7">
         <v>247</v>
@@ -4364,13 +4349,13 @@
         <v>250515</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M43" s="7">
         <v>607</v>
@@ -4379,13 +4364,13 @@
         <v>622872</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4385,13 @@
         <v>46579</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H44" s="7">
         <v>26</v>
@@ -4415,13 +4400,13 @@
         <v>25788</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>194</v>
+        <v>310</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M44" s="7">
         <v>71</v>
@@ -4430,13 +4415,13 @@
         <v>72367</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,7 +4433,7 @@
         <v>3213</v>
       </c>
       <c r="D45" s="7">
-        <v>3373765</v>
+        <v>3373766</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>60</v>
@@ -4492,7 +4477,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +4499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BE31E2-35FA-46E7-8114-E6F6799A036D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387C9044-C435-4FE0-BDEC-10BFD27A0600}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4531,7 +4516,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4638,13 +4623,13 @@
         <v>27362</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -4653,13 +4638,13 @@
         <v>24414</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>56</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4668,13 +4653,13 @@
         <v>51775</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4674,13 @@
         <v>114753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -4704,13 +4689,13 @@
         <v>136611</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -4719,13 +4704,13 @@
         <v>251364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4725,13 @@
         <v>182160</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -4755,13 +4740,13 @@
         <v>152214</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M6" s="7">
         <v>167</v>
@@ -4770,13 +4755,13 @@
         <v>334374</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4776,13 @@
         <v>48651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4806,13 +4791,13 @@
         <v>37588</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -4821,13 +4806,13 @@
         <v>86239</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4827,13 @@
         <v>4754</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4857,13 +4842,13 @@
         <v>2441</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4872,13 +4857,13 @@
         <v>7195</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4931,13 @@
         <v>34876</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4961,13 +4946,13 @@
         <v>63391</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -4976,13 +4961,13 @@
         <v>98266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4982,13 @@
         <v>165786</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -5012,13 +4997,13 @@
         <v>232067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>348</v>
@@ -5027,13 +5012,13 @@
         <v>397854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5033,13 @@
         <v>162815</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H12" s="7">
         <v>153</v>
@@ -5063,13 +5048,13 @@
         <v>183575</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M12" s="7">
         <v>268</v>
@@ -5078,13 +5063,13 @@
         <v>346390</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5084,13 @@
         <v>56537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5114,13 +5099,13 @@
         <v>19544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -5129,13 +5114,13 @@
         <v>76081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5135,13 @@
         <v>8382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5165,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5180,13 +5165,13 @@
         <v>8382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5239,13 @@
         <v>83825</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5269,13 +5254,13 @@
         <v>116530</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
         <v>257</v>
@@ -5284,13 +5269,13 @@
         <v>200355</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5290,13 @@
         <v>255398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
@@ -5320,13 +5305,13 @@
         <v>273937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>673</v>
@@ -5335,13 +5320,13 @@
         <v>529334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5341,13 @@
         <v>173628</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H18" s="7">
         <v>221</v>
@@ -5371,13 +5356,13 @@
         <v>160143</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M18" s="7">
         <v>379</v>
@@ -5386,13 +5371,13 @@
         <v>333772</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5392,13 @@
         <v>35025</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>424</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -5422,13 +5407,13 @@
         <v>27381</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -5437,13 +5422,13 @@
         <v>62405</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5443,13 @@
         <v>9376</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5473,13 +5458,13 @@
         <v>3724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -5488,13 +5473,13 @@
         <v>13100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5535,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5562,13 +5547,13 @@
         <v>138931</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H22" s="7">
         <v>302</v>
@@ -5577,13 +5562,13 @@
         <v>187393</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>442</v>
@@ -5592,13 +5577,13 @@
         <v>326325</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5598,13 @@
         <v>319660</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H23" s="7">
         <v>525</v>
@@ -5628,13 +5613,13 @@
         <v>330641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>845</v>
@@ -5643,13 +5628,13 @@
         <v>650300</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5649,13 @@
         <v>167370</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H24" s="7">
         <v>268</v>
@@ -5679,13 +5664,13 @@
         <v>197366</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>217</v>
+        <v>459</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M24" s="7">
         <v>429</v>
@@ -5694,13 +5679,13 @@
         <v>364735</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5700,13 @@
         <v>37584</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5730,13 +5715,13 @@
         <v>25696</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -5745,13 +5730,13 @@
         <v>63280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>467</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5751,13 @@
         <v>58497</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5781,13 +5766,13 @@
         <v>2107</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>475</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>476</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -5796,13 +5781,13 @@
         <v>60604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,7 +5843,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5870,13 +5855,13 @@
         <v>195791</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H28" s="7">
         <v>446</v>
@@ -5885,13 +5870,13 @@
         <v>264809</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M28" s="7">
         <v>669</v>
@@ -5900,13 +5885,13 @@
         <v>460600</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5906,13 @@
         <v>246076</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H29" s="7">
         <v>401</v>
@@ -5936,13 +5921,13 @@
         <v>233218</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>672</v>
@@ -5951,13 +5936,13 @@
         <v>479294</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>87</v>
+        <v>492</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>495</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +5957,13 @@
         <v>131239</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H30" s="7">
         <v>137</v>
@@ -5987,13 +5972,13 @@
         <v>87087</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M30" s="7">
         <v>277</v>
@@ -6002,13 +5987,13 @@
         <v>218327</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6008,13 @@
         <v>20448</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -6038,13 +6023,13 @@
         <v>7907</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -6053,13 +6038,13 @@
         <v>28355</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>511</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,10 +6059,10 @@
         <v>4822</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>272</v>
+        <v>510</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>54</v>
@@ -6089,13 +6074,13 @@
         <v>1864</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -6104,13 +6089,13 @@
         <v>6687</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,7 +6151,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6178,13 +6163,13 @@
         <v>393604</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H34" s="7">
         <v>1108</v>
@@ -6193,13 +6178,13 @@
         <v>702863</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="M34" s="7">
         <v>1697</v>
@@ -6208,13 +6193,13 @@
         <v>1096467</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6214,13 @@
         <v>198637</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H35" s="7">
         <v>429</v>
@@ -6244,13 +6229,13 @@
         <v>225462</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M35" s="7">
         <v>717</v>
@@ -6259,13 +6244,13 @@
         <v>424099</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6265,13 @@
         <v>86123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H36" s="7">
         <v>145</v>
@@ -6295,13 +6280,13 @@
         <v>80737</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="M36" s="7">
         <v>269</v>
@@ -6310,13 +6295,13 @@
         <v>166861</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6316,13 @@
         <v>18088</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -6346,13 +6331,13 @@
         <v>16786</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M37" s="7">
         <v>49</v>
@@ -6361,13 +6346,13 @@
         <v>34875</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>550</v>
+        <v>232</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6367,13 @@
         <v>718</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6397,13 +6382,13 @@
         <v>159</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6412,13 +6397,13 @@
         <v>878</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6471,13 @@
         <v>874389</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H40" s="7">
         <v>2109</v>
@@ -6501,13 +6486,13 @@
         <v>1359399</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M40" s="7">
         <v>3185</v>
@@ -6516,13 +6501,13 @@
         <v>2233788</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6522,13 @@
         <v>1300309</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H41" s="7">
         <v>2077</v>
@@ -6552,13 +6537,13 @@
         <v>1431937</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M41" s="7">
         <v>3392</v>
@@ -6567,13 +6552,13 @@
         <v>2732246</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>571</v>
+        <v>212</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6573,13 @@
         <v>903335</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H42" s="7">
         <v>1006</v>
@@ -6603,13 +6588,13 @@
         <v>861123</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>448</v>
+        <v>49</v>
       </c>
       <c r="M42" s="7">
         <v>1789</v>
@@ -6618,13 +6603,13 @@
         <v>1764458</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6624,13 @@
         <v>216333</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H43" s="7">
         <v>144</v>
@@ -6654,13 +6639,13 @@
         <v>134902</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>584</v>
+        <v>181</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="M43" s="7">
         <v>313</v>
@@ -6669,13 +6654,13 @@
         <v>351235</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>179</v>
+        <v>467</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6675,13 @@
         <v>86549</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H44" s="7">
         <v>14</v>
@@ -6705,13 +6690,13 @@
         <v>10296</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="M44" s="7">
         <v>42</v>
@@ -6720,13 +6705,13 @@
         <v>96845</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,7 +6767,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD36B7FC-7904-401D-BCA1-1477EAD0C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{117B83B8-15BA-475D-9AD0-46FD0D4E3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FCF7659A-27F5-4FF4-A52F-06CF756E25E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37A7C7AF-CA6C-4E9A-B08E-F26604FB8AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="595">
   <si>
     <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,1729 +75,1753 @@
     <t>6,9%</t>
   </si>
   <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>33,53%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
     <t>4,89%</t>
   </si>
   <si>
+    <t>5,55%</t>
+  </si>
+  <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
     <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
 </sst>
 </file>
@@ -2209,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F439A8-4820-4D27-B2BF-DD88BE7DB7D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C2964F-9375-4BDE-9E61-ECB1EF07E71C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2773,13 +2797,13 @@
         <v>495424</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2818,13 @@
         <v>119557</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -2809,13 +2833,13 @@
         <v>59305</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>175</v>
@@ -2824,13 +2848,13 @@
         <v>178863</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2869,13 @@
         <v>11621</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2860,13 +2884,13 @@
         <v>7518</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -2875,13 +2899,13 @@
         <v>19139</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,7 +2961,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2949,13 +2973,13 @@
         <v>99505</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>135</v>
@@ -2964,13 +2988,13 @@
         <v>136172</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>228</v>
@@ -2979,7 +3003,7 @@
         <v>235677</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>114</v>
@@ -3183,13 +3207,13 @@
         <v>13224</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,7 +3269,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3257,13 +3281,13 @@
         <v>179742</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -3272,13 +3296,13 @@
         <v>198778</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -3287,13 +3311,13 @@
         <v>378520</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3332,13 @@
         <v>224781</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>223</v>
@@ -3323,13 +3347,13 @@
         <v>237323</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>427</v>
@@ -3338,13 +3362,13 @@
         <v>462103</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3485,13 @@
         <v>10673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3476,13 +3500,13 @@
         <v>6347</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -3491,13 +3515,13 @@
         <v>17019</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,7 +3577,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3565,13 +3589,13 @@
         <v>199750</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>210</v>
@@ -3580,13 +3604,13 @@
         <v>240114</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>388</v>
@@ -3595,10 +3619,10 @@
         <v>439864</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>203</v>
@@ -3619,10 +3643,10 @@
         <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>142</v>
@@ -3631,13 +3655,13 @@
         <v>160942</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>279</v>
@@ -3646,13 +3670,13 @@
         <v>314807</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3691,13 @@
         <v>92105</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>61</v>
@@ -3682,13 +3706,13 @@
         <v>72161</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>141</v>
@@ -3697,13 +3721,13 @@
         <v>164266</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3742,13 @@
         <v>22631</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -3733,13 +3757,13 @@
         <v>22388</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -3748,13 +3772,13 @@
         <v>45019</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3793,13 @@
         <v>2041</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3784,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3799,10 +3823,10 @@
         <v>2041</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>146</v>
@@ -3861,7 +3885,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3873,13 +3897,13 @@
         <v>383723</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>456</v>
@@ -3888,13 +3912,13 @@
         <v>542306</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>867</v>
@@ -3903,13 +3927,13 @@
         <v>926029</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3948,13 @@
         <v>134839</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>124</v>
@@ -3939,13 +3963,13 @@
         <v>145379</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>265</v>
@@ -3954,13 +3978,13 @@
         <v>280218</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,10 +3999,10 @@
         <v>44022</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>256</v>
@@ -4044,10 +4068,10 @@
         <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -4056,13 +4080,13 @@
         <v>40737</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4101,13 @@
         <v>938</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4092,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4107,13 +4131,13 @@
         <v>938</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4205,13 @@
         <v>950074</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H40" s="7">
         <v>1079</v>
@@ -4196,13 +4220,13 @@
         <v>1209170</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>2000</v>
@@ -4211,13 +4235,13 @@
         <v>2159245</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4256,13 @@
         <v>991874</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H41" s="7">
         <v>1034</v>
@@ -4247,13 +4271,13 @@
         <v>1084925</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>1969</v>
@@ -4262,13 +4286,13 @@
         <v>2076800</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4307,13 @@
         <v>1012881</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H42" s="7">
         <v>933</v>
@@ -4298,13 +4322,13 @@
         <v>950747</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>1885</v>
@@ -4313,13 +4337,13 @@
         <v>1963628</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4358,13 @@
         <v>372357</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>247</v>
@@ -4349,13 +4373,13 @@
         <v>250515</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M43" s="7">
         <v>607</v>
@@ -4364,13 +4388,13 @@
         <v>622872</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>19</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4409,13 @@
         <v>46579</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>99</v>
+        <v>313</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H44" s="7">
         <v>26</v>
@@ -4400,13 +4424,13 @@
         <v>25788</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>312</v>
+        <v>104</v>
       </c>
       <c r="M44" s="7">
         <v>71</v>
@@ -4415,13 +4439,13 @@
         <v>72367</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>191</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,7 +4501,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4499,7 +4523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387C9044-C435-4FE0-BDEC-10BFD27A0600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F23984-EA66-40CB-9D98-D6316B3586FC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4516,7 +4540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4623,13 +4647,13 @@
         <v>27362</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -4638,13 +4662,13 @@
         <v>24414</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>56</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4653,13 +4677,13 @@
         <v>51775</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4698,13 @@
         <v>114753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
@@ -4689,13 +4713,13 @@
         <v>136611</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -4704,13 +4728,13 @@
         <v>251364</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4749,13 @@
         <v>182160</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -4740,13 +4764,13 @@
         <v>152214</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>167</v>
@@ -4755,13 +4779,13 @@
         <v>334374</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4800,13 @@
         <v>48651</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4791,13 +4815,13 @@
         <v>37588</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -4806,13 +4830,13 @@
         <v>86239</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4851,13 @@
         <v>4754</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4842,13 +4866,13 @@
         <v>2441</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>55</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -4857,13 +4881,13 @@
         <v>7195</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4955,13 @@
         <v>34876</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -4946,13 +4970,13 @@
         <v>63391</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -4961,13 +4985,13 @@
         <v>98266</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +5006,13 @@
         <v>165786</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -4997,13 +5021,13 @@
         <v>232067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>348</v>
@@ -5012,13 +5036,13 @@
         <v>397854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5057,13 @@
         <v>162815</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H12" s="7">
         <v>153</v>
@@ -5048,13 +5072,13 @@
         <v>183575</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M12" s="7">
         <v>268</v>
@@ -5063,13 +5087,13 @@
         <v>346390</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5108,13 @@
         <v>56537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5099,13 +5123,13 @@
         <v>19544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -5114,13 +5138,13 @@
         <v>76081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,13 +5159,13 @@
         <v>8382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5150,13 +5174,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5165,13 +5189,13 @@
         <v>8382</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5251,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5239,13 +5263,13 @@
         <v>83825</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5254,13 +5278,13 @@
         <v>116530</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>326</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>257</v>
@@ -5269,13 +5293,13 @@
         <v>200355</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5314,13 @@
         <v>255398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
@@ -5305,13 +5329,13 @@
         <v>273937</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>673</v>
@@ -5320,13 +5344,13 @@
         <v>529334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,28 +5365,28 @@
         <v>173628</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>415</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H18" s="7">
         <v>221</v>
       </c>
       <c r="I18" s="7">
-        <v>160143</v>
+        <v>160144</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M18" s="7">
         <v>379</v>
@@ -5371,13 +5395,13 @@
         <v>333772</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5416,13 @@
         <v>35025</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -5407,13 +5431,13 @@
         <v>27381</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -5422,13 +5446,13 @@
         <v>62405</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5467,13 @@
         <v>9376</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -5458,13 +5482,13 @@
         <v>3724</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -5473,13 +5497,13 @@
         <v>13100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>437</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,7 +5530,7 @@
         <v>844</v>
       </c>
       <c r="I21" s="7">
-        <v>581714</v>
+        <v>581715</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5535,7 +5559,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5547,13 +5571,13 @@
         <v>138931</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>302</v>
@@ -5562,13 +5586,13 @@
         <v>187393</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>443</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>442</v>
@@ -5577,13 +5601,13 @@
         <v>326325</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>445</v>
+        <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>49</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5622,13 @@
         <v>319660</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H23" s="7">
         <v>525</v>
@@ -5613,13 +5637,13 @@
         <v>330641</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
         <v>845</v>
@@ -5628,13 +5652,13 @@
         <v>650300</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5673,13 @@
         <v>167370</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H24" s="7">
         <v>268</v>
@@ -5664,13 +5688,13 @@
         <v>197366</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>460</v>
+        <v>75</v>
       </c>
       <c r="M24" s="7">
         <v>429</v>
@@ -5679,13 +5703,13 @@
         <v>364735</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>21</v>
+        <v>464</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5724,13 @@
         <v>37584</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>263</v>
+        <v>467</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5715,13 +5739,13 @@
         <v>25696</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>12</v>
+        <v>471</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
@@ -5730,13 +5754,13 @@
         <v>63280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5775,13 @@
         <v>58497</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>471</v>
+        <v>273</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5766,13 +5790,13 @@
         <v>2107</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -5781,13 +5805,13 @@
         <v>60604</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>393</v>
+        <v>479</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,7 +5867,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5855,13 +5879,13 @@
         <v>195791</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H28" s="7">
         <v>446</v>
@@ -5870,13 +5894,13 @@
         <v>264809</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="M28" s="7">
         <v>669</v>
@@ -5885,13 +5909,13 @@
         <v>460600</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5930,13 @@
         <v>246076</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H29" s="7">
         <v>401</v>
@@ -5921,13 +5945,13 @@
         <v>233218</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="M29" s="7">
         <v>672</v>
@@ -5936,13 +5960,13 @@
         <v>479294</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>492</v>
+        <v>86</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>38</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5981,13 @@
         <v>131239</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H30" s="7">
         <v>137</v>
@@ -5972,13 +5996,13 @@
         <v>87087</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="M30" s="7">
         <v>277</v>
@@ -5987,13 +6011,13 @@
         <v>218327</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6032,13 @@
         <v>20448</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -6023,13 +6047,13 @@
         <v>7907</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -6038,13 +6062,13 @@
         <v>28355</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6083,13 @@
         <v>4822</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>510</v>
+        <v>273</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>396</v>
+        <v>515</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>54</v>
+        <v>516</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6074,13 +6098,13 @@
         <v>1864</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>396</v>
+        <v>515</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>512</v>
+        <v>273</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -6089,13 +6113,13 @@
         <v>6687</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>514</v>
+        <v>360</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,7 +6175,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6163,13 +6187,13 @@
         <v>393604</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H34" s="7">
         <v>1108</v>
@@ -6178,13 +6202,13 @@
         <v>702863</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M34" s="7">
         <v>1697</v>
@@ -6193,13 +6217,13 @@
         <v>1096467</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,10 +6241,10 @@
         <v>296</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H35" s="7">
         <v>429</v>
@@ -6229,13 +6253,13 @@
         <v>225462</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="M35" s="7">
         <v>717</v>
@@ -6244,13 +6268,13 @@
         <v>424099</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>531</v>
+        <v>44</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6289,13 @@
         <v>86123</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>534</v>
+        <v>65</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="H36" s="7">
         <v>145</v>
@@ -6280,13 +6304,13 @@
         <v>80737</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M36" s="7">
         <v>269</v>
@@ -6295,13 +6319,13 @@
         <v>166861</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6340,13 @@
         <v>18088</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>542</v>
+        <v>436</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H37" s="7">
         <v>24</v>
@@ -6331,10 +6355,10 @@
         <v>16786</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>545</v>
+        <v>149</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>546</v>
@@ -6349,10 +6373,10 @@
         <v>547</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>232</v>
+        <v>548</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6391,13 @@
         <v>718</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6382,13 +6406,13 @@
         <v>159</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>552</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -6400,10 +6424,10 @@
         <v>553</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>235</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6495,13 @@
         <v>874389</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H40" s="7">
         <v>2109</v>
@@ -6486,13 +6510,13 @@
         <v>1359399</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>558</v>
+        <v>38</v>
       </c>
       <c r="M40" s="7">
         <v>3185</v>
@@ -6507,7 +6531,7 @@
         <v>560</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>472</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +6546,13 @@
         <v>1300309</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H41" s="7">
         <v>2077</v>
@@ -6537,13 +6561,13 @@
         <v>1431937</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M41" s="7">
         <v>3392</v>
@@ -6552,13 +6576,13 @@
         <v>2732246</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>212</v>
+        <v>569</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,13 +6597,13 @@
         <v>903335</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H42" s="7">
         <v>1006</v>
@@ -6588,13 +6612,13 @@
         <v>861123</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>49</v>
+        <v>575</v>
       </c>
       <c r="M42" s="7">
         <v>1789</v>
@@ -6603,13 +6627,13 @@
         <v>1764458</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>24</v>
+        <v>577</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +6648,13 @@
         <v>216333</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H43" s="7">
         <v>144</v>
@@ -6639,13 +6663,13 @@
         <v>134902</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>181</v>
+        <v>583</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M43" s="7">
         <v>313</v>
@@ -6654,13 +6678,13 @@
         <v>351235</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>467</v>
+        <v>584</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>469</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6699,13 @@
         <v>86549</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>395</v>
+        <v>588</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="H44" s="7">
         <v>14</v>
@@ -6690,13 +6714,13 @@
         <v>10296</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="M44" s="7">
         <v>42</v>
@@ -6705,13 +6729,13 @@
         <v>96845</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>513</v>
+        <v>593</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>425</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,7 +6777,7 @@
         <v>8721</v>
       </c>
       <c r="N45" s="7">
-        <v>7178571</v>
+        <v>7178572</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -6767,7 +6791,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{117B83B8-15BA-475D-9AD0-46FD0D4E3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A22E7499-1C50-4186-A92B-9A95257620C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37A7C7AF-CA6C-4E9A-B08E-F26604FB8AD1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EF667A6D-265E-4737-8CE9-4BAD19A8FD79}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="648">
   <si>
     <t>Población según la frecuencia de consumo de comida rápida en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -222,7 +222,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>9,9%</t>
@@ -357,7 +357,7 @@
     <t>2,63%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>14,95%</t>
@@ -492,7 +492,7 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>27,87%</t>
@@ -624,7 +624,7 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>42,46%</t>
@@ -744,1084 +744,1243 @@
     <t>0,21%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de comida rápida en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
 </sst>
 </file>
@@ -2233,8 +2392,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C2964F-9375-4BDE-9E61-ECB1EF07E71C}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398390C4-85CC-4CED-B06B-364002569A61}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3891,10 +4050,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>411</v>
+        <v>195</v>
       </c>
       <c r="D34" s="7">
-        <v>383723</v>
+        <v>200787</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>236</v>
@@ -3906,10 +4065,10 @@
         <v>238</v>
       </c>
       <c r="H34" s="7">
-        <v>456</v>
+        <v>235</v>
       </c>
       <c r="I34" s="7">
-        <v>542306</v>
+        <v>252290</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>239</v>
@@ -3921,10 +4080,10 @@
         <v>241</v>
       </c>
       <c r="M34" s="7">
-        <v>867</v>
+        <v>430</v>
       </c>
       <c r="N34" s="7">
-        <v>926029</v>
+        <v>453077</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>242</v>
@@ -3942,10 +4101,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="D35" s="7">
-        <v>134839</v>
+        <v>85757</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>245</v>
@@ -3957,34 +4116,34 @@
         <v>247</v>
       </c>
       <c r="H35" s="7">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I35" s="7">
-        <v>145379</v>
+        <v>83722</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>248</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>161</v>
+      </c>
+      <c r="N35" s="7">
+        <v>169479</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M35" s="7">
-        <v>265</v>
-      </c>
-      <c r="N35" s="7">
-        <v>280218</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,49 +4152,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D36" s="7">
-        <v>44022</v>
+        <v>33362</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>27</v>
+      </c>
+      <c r="I36" s="7">
+        <v>28299</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H36" s="7">
-        <v>47</v>
-      </c>
-      <c r="I36" s="7">
-        <v>55900</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>60</v>
+      </c>
+      <c r="N36" s="7">
+        <v>61661</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="M36" s="7">
-        <v>92</v>
-      </c>
-      <c r="N36" s="7">
-        <v>99922</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +4203,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D37" s="7">
-        <v>20468</v>
+        <v>11490</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="7">
+        <v>11</v>
+      </c>
+      <c r="I37" s="7">
+        <v>11435</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H37" s="7">
-        <v>18</v>
-      </c>
-      <c r="I37" s="7">
-        <v>20269</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>23</v>
+      </c>
+      <c r="N37" s="7">
+        <v>22925</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="P37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M37" s="7">
-        <v>40</v>
-      </c>
-      <c r="N37" s="7">
-        <v>40737</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4260,13 @@
         <v>938</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>230</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4122,7 +4281,7 @@
         <v>232</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4131,13 +4290,13 @@
         <v>938</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,10 +4305,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>620</v>
+        <v>323</v>
       </c>
       <c r="D39" s="7">
-        <v>583990</v>
+        <v>332333</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -4161,10 +4320,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>645</v>
+        <v>352</v>
       </c>
       <c r="I39" s="7">
-        <v>763853</v>
+        <v>375747</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -4176,10 +4335,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>1265</v>
+        <v>675</v>
       </c>
       <c r="N39" s="7">
-        <v>1347843</v>
+        <v>708080</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -4193,55 +4352,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>921</v>
+        <v>216</v>
       </c>
       <c r="D40" s="7">
-        <v>950074</v>
+        <v>182937</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H40" s="7">
+        <v>221</v>
+      </c>
+      <c r="I40" s="7">
+        <v>290016</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H40" s="7">
-        <v>1079</v>
-      </c>
-      <c r="I40" s="7">
-        <v>1209170</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="M40" s="7">
+        <v>437</v>
+      </c>
+      <c r="N40" s="7">
+        <v>472952</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="M40" s="7">
-        <v>2000</v>
-      </c>
-      <c r="N40" s="7">
-        <v>2159245</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,49 +4409,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>935</v>
+        <v>59</v>
       </c>
       <c r="D41" s="7">
-        <v>991874</v>
+        <v>49082</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="7">
+        <v>45</v>
+      </c>
+      <c r="I41" s="7">
+        <v>61657</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H41" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I41" s="7">
-        <v>1084925</v>
-      </c>
-      <c r="J41" s="7" t="s">
+      <c r="M41" s="7">
+        <v>104</v>
+      </c>
+      <c r="N41" s="7">
+        <v>110739</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="P41" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="M41" s="7">
-        <v>1969</v>
-      </c>
-      <c r="N41" s="7">
-        <v>2076800</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,49 +4460,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>952</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7">
-        <v>1012881</v>
+        <v>10660</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H42" s="7">
+        <v>20</v>
+      </c>
+      <c r="I42" s="7">
+        <v>27600</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="K42" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="H42" s="7">
-        <v>933</v>
-      </c>
-      <c r="I42" s="7">
-        <v>950747</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42" s="7" t="s">
+      <c r="M42" s="7">
+        <v>32</v>
+      </c>
+      <c r="N42" s="7">
+        <v>38260</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="P42" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="M42" s="7">
-        <v>1885</v>
-      </c>
-      <c r="N42" s="7">
-        <v>1963628</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,49 +4511,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="D43" s="7">
-        <v>372357</v>
+        <v>8978</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H43" s="7">
+        <v>7</v>
+      </c>
+      <c r="I43" s="7">
+        <v>8834</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H43" s="7">
-        <v>247</v>
-      </c>
-      <c r="I43" s="7">
-        <v>250515</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="M43" s="7">
+        <v>17</v>
+      </c>
+      <c r="N43" s="7">
+        <v>17812</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="P43" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="M43" s="7">
-        <v>607</v>
-      </c>
-      <c r="N43" s="7">
-        <v>622872</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,49 +4562,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>46579</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H44" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>25788</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="M44" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>72367</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,63 +4613,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>297</v>
+      </c>
+      <c r="D45" s="7">
+        <v>251657</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>293</v>
+      </c>
+      <c r="I45" s="7">
+        <v>388106</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>590</v>
+      </c>
+      <c r="N45" s="7">
+        <v>639763</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>921</v>
+      </c>
+      <c r="D46" s="7">
+        <v>950074</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1079</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1209170</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M46" s="7">
+        <v>2000</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2159245</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>935</v>
+      </c>
+      <c r="D47" s="7">
+        <v>991874</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1034</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1084925</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1969</v>
+      </c>
+      <c r="N47" s="7">
+        <v>2076800</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>952</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1012881</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H48" s="7">
+        <v>933</v>
+      </c>
+      <c r="I48" s="7">
+        <v>950747</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1885</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1963628</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>360</v>
+      </c>
+      <c r="D49" s="7">
+        <v>372357</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H49" s="7">
+        <v>247</v>
+      </c>
+      <c r="I49" s="7">
+        <v>250515</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" s="7">
+        <v>607</v>
+      </c>
+      <c r="N49" s="7">
+        <v>622872</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>45</v>
+      </c>
+      <c r="D50" s="7">
+        <v>46579</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H50" s="7">
+        <v>26</v>
+      </c>
+      <c r="I50" s="7">
+        <v>25788</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M50" s="7">
+        <v>71</v>
+      </c>
+      <c r="N50" s="7">
+        <v>72367</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3213</v>
       </c>
-      <c r="D45" s="7">
-        <v>3373766</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3373765</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>3319</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3521146</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>6532</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6894911</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>319</v>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4523,8 +4991,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F23984-EA66-40CB-9D98-D6316B3586FC}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AFA1ED-A12E-4AC4-904C-DF73FAE9FCB7}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4540,7 +5008,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4644,46 +5112,46 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>27362</v>
+        <v>27262</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>24414</v>
+        <v>21514</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>51775</v>
+        <v>48776</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,46 +5163,46 @@
         <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>114753</v>
+        <v>129154</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="H5" s="7">
         <v>84</v>
       </c>
       <c r="I5" s="7">
-        <v>136611</v>
+        <v>122960</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
       </c>
       <c r="N5" s="7">
-        <v>251364</v>
+        <v>252114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,46 +5214,46 @@
         <v>85</v>
       </c>
       <c r="D6" s="7">
-        <v>182160</v>
+        <v>192471</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
       </c>
       <c r="I6" s="7">
-        <v>152214</v>
+        <v>133514</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>167</v>
       </c>
       <c r="N6" s="7">
-        <v>334374</v>
+        <v>325985</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,46 +5265,46 @@
         <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>48651</v>
+        <v>47014</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>37588</v>
+        <v>31802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>86239</v>
+        <v>78817</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,46 +5316,46 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>4754</v>
+        <v>4086</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>382</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>2441</v>
+        <v>1827</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>7195</v>
+        <v>5913</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,7 +5367,7 @@
         <v>172</v>
       </c>
       <c r="D9" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -4914,7 +5382,7 @@
         <v>206</v>
       </c>
       <c r="I9" s="7">
-        <v>353268</v>
+        <v>311617</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -4929,7 +5397,7 @@
         <v>378</v>
       </c>
       <c r="N9" s="7">
-        <v>730947</v>
+        <v>711604</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -4952,46 +5420,46 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>34876</v>
+        <v>33236</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>63391</v>
+        <v>58436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>98266</v>
+        <v>91672</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,46 +5471,46 @@
         <v>120</v>
       </c>
       <c r="D11" s="7">
-        <v>165786</v>
+        <v>170234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>232067</v>
+        <v>214538</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="M11" s="7">
         <v>348</v>
       </c>
       <c r="N11" s="7">
-        <v>397854</v>
+        <v>384772</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,46 +5522,46 @@
         <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>162815</v>
+        <v>160060</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="H12" s="7">
         <v>153</v>
       </c>
       <c r="I12" s="7">
-        <v>183575</v>
+        <v>221398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="M12" s="7">
         <v>268</v>
       </c>
       <c r="N12" s="7">
-        <v>346390</v>
+        <v>381458</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,46 +5573,46 @@
         <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>56537</v>
+        <v>52302</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>19544</v>
+        <v>17131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>417</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>76081</v>
+        <v>69433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,16 +5624,16 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>8382</v>
+        <v>7715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5180,22 +5648,22 @@
         <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>8382</v>
+        <v>7715</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,7 +5675,7 @@
         <v>302</v>
       </c>
       <c r="D15" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5222,7 +5690,7 @@
         <v>460</v>
       </c>
       <c r="I15" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5237,7 +5705,7 @@
         <v>762</v>
       </c>
       <c r="N15" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5260,46 +5728,46 @@
         <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>83825</v>
+        <v>80780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
       </c>
       <c r="I16" s="7">
-        <v>116530</v>
+        <v>108491</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="M16" s="7">
         <v>257</v>
       </c>
       <c r="N16" s="7">
-        <v>200355</v>
+        <v>189271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,46 +5779,46 @@
         <v>263</v>
       </c>
       <c r="D17" s="7">
-        <v>255398</v>
+        <v>249071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
       </c>
       <c r="I17" s="7">
-        <v>273937</v>
+        <v>257809</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="M17" s="7">
         <v>673</v>
       </c>
       <c r="N17" s="7">
-        <v>529334</v>
+        <v>506881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,46 +5830,46 @@
         <v>158</v>
       </c>
       <c r="D18" s="7">
-        <v>173628</v>
+        <v>165151</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>445</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="H18" s="7">
         <v>221</v>
       </c>
       <c r="I18" s="7">
-        <v>160144</v>
+        <v>146347</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="M18" s="7">
         <v>379</v>
       </c>
       <c r="N18" s="7">
-        <v>333772</v>
+        <v>311498</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,46 +5881,46 @@
         <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>35025</v>
+        <v>31898</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>454</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>27381</v>
+        <v>24775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>432</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
       </c>
       <c r="N19" s="7">
-        <v>62405</v>
+        <v>56673</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,46 +5932,46 @@
         <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>9376</v>
+        <v>9438</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>437</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>3724</v>
+        <v>3393</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
       </c>
       <c r="N20" s="7">
-        <v>13100</v>
+        <v>12831</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>310</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,7 +5983,7 @@
         <v>546</v>
       </c>
       <c r="D21" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5530,7 +5998,7 @@
         <v>844</v>
       </c>
       <c r="I21" s="7">
-        <v>581715</v>
+        <v>540814</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5545,7 +6013,7 @@
         <v>1390</v>
       </c>
       <c r="N21" s="7">
-        <v>1138966</v>
+        <v>1077153</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5568,46 +6036,46 @@
         <v>140</v>
       </c>
       <c r="D22" s="7">
-        <v>138931</v>
+        <v>134301</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>443</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="H22" s="7">
         <v>302</v>
       </c>
       <c r="I22" s="7">
-        <v>187393</v>
+        <v>174824</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>207</v>
+        <v>471</v>
       </c>
       <c r="M22" s="7">
         <v>442</v>
       </c>
       <c r="N22" s="7">
-        <v>326325</v>
+        <v>309124</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,46 +6087,46 @@
         <v>320</v>
       </c>
       <c r="D23" s="7">
-        <v>319660</v>
+        <v>311526</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>451</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>525</v>
       </c>
       <c r="I23" s="7">
-        <v>330641</v>
+        <v>307072</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="M23" s="7">
         <v>845</v>
       </c>
       <c r="N23" s="7">
-        <v>650300</v>
+        <v>618598</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,46 +6138,46 @@
         <v>161</v>
       </c>
       <c r="D24" s="7">
-        <v>167370</v>
+        <v>155263</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="H24" s="7">
         <v>268</v>
       </c>
       <c r="I24" s="7">
-        <v>197366</v>
+        <v>202300</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>462</v>
+        <v>250</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>75</v>
+        <v>487</v>
       </c>
       <c r="M24" s="7">
         <v>429</v>
       </c>
       <c r="N24" s="7">
-        <v>364735</v>
+        <v>357563</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,46 +6189,46 @@
         <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>37584</v>
+        <v>33783</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>468</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
       </c>
       <c r="I25" s="7">
-        <v>25696</v>
+        <v>22904</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="M25" s="7">
         <v>71</v>
       </c>
       <c r="N25" s="7">
-        <v>63280</v>
+        <v>56687</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,46 +6240,46 @@
         <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>58497</v>
+        <v>251037</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>500</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>2107</v>
+        <v>2004</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>477</v>
+        <v>268</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>193</v>
+        <v>503</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
       </c>
       <c r="N26" s="7">
-        <v>60604</v>
+        <v>253041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,7 +6291,7 @@
         <v>663</v>
       </c>
       <c r="D27" s="7">
-        <v>722041</v>
+        <v>885909</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -5838,7 +6306,7 @@
         <v>1134</v>
       </c>
       <c r="I27" s="7">
-        <v>743203</v>
+        <v>709104</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -5853,7 +6321,7 @@
         <v>1797</v>
       </c>
       <c r="N27" s="7">
-        <v>1465244</v>
+        <v>1595013</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -5876,46 +6344,46 @@
         <v>223</v>
       </c>
       <c r="D28" s="7">
-        <v>195791</v>
+        <v>186627</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="H28" s="7">
         <v>446</v>
       </c>
       <c r="I28" s="7">
-        <v>264809</v>
+        <v>245741</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="M28" s="7">
         <v>669</v>
       </c>
       <c r="N28" s="7">
-        <v>460600</v>
+        <v>432368</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,46 +6395,46 @@
         <v>271</v>
       </c>
       <c r="D29" s="7">
-        <v>246076</v>
+        <v>230662</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>492</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="H29" s="7">
         <v>401</v>
       </c>
       <c r="I29" s="7">
-        <v>233218</v>
+        <v>213819</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="M29" s="7">
         <v>672</v>
       </c>
       <c r="N29" s="7">
-        <v>479294</v>
+        <v>444481</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>86</v>
+        <v>521</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,46 +6446,46 @@
         <v>140</v>
       </c>
       <c r="D30" s="7">
-        <v>131239</v>
+        <v>119201</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="H30" s="7">
         <v>137</v>
       </c>
       <c r="I30" s="7">
-        <v>87087</v>
+        <v>77516</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="M30" s="7">
         <v>277</v>
       </c>
       <c r="N30" s="7">
-        <v>218327</v>
+        <v>196717</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>505</v>
+        <v>113</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,46 +6497,46 @@
         <v>22</v>
       </c>
       <c r="D31" s="7">
-        <v>20448</v>
+        <v>18541</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
       </c>
       <c r="I31" s="7">
-        <v>7907</v>
+        <v>7117</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>511</v>
+        <v>269</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>512</v>
+        <v>347</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
       </c>
       <c r="N31" s="7">
-        <v>28355</v>
+        <v>25658</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>492</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,46 +6548,46 @@
         <v>5</v>
       </c>
       <c r="D32" s="7">
-        <v>4822</v>
+        <v>4482</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>1864</v>
+        <v>1692</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>515</v>
+        <v>425</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>273</v>
+        <v>539</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
       </c>
       <c r="N32" s="7">
-        <v>6687</v>
+        <v>6174</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>360</v>
+        <v>541</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,7 +6599,7 @@
         <v>661</v>
       </c>
       <c r="D33" s="7">
-        <v>598376</v>
+        <v>559513</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -6146,7 +6614,7 @@
         <v>999</v>
       </c>
       <c r="I33" s="7">
-        <v>594886</v>
+        <v>545885</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -6161,7 +6629,7 @@
         <v>1660</v>
       </c>
       <c r="N33" s="7">
-        <v>1193262</v>
+        <v>1105398</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -6181,49 +6649,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>589</v>
+        <v>283</v>
       </c>
       <c r="D34" s="7">
-        <v>393604</v>
+        <v>186773</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="H34" s="7">
-        <v>1108</v>
+        <v>484</v>
       </c>
       <c r="I34" s="7">
-        <v>702863</v>
+        <v>444908</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="M34" s="7">
-        <v>1697</v>
+        <v>767</v>
       </c>
       <c r="N34" s="7">
-        <v>1096467</v>
+        <v>631681</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,49 +6700,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>288</v>
+        <v>190</v>
       </c>
       <c r="D35" s="7">
-        <v>198637</v>
+        <v>120303</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="H35" s="7">
-        <v>429</v>
+        <v>244</v>
       </c>
       <c r="I35" s="7">
-        <v>225462</v>
+        <v>115475</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>532</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="M35" s="7">
-        <v>717</v>
+        <v>434</v>
       </c>
       <c r="N35" s="7">
-        <v>424099</v>
+        <v>235778</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>44</v>
+        <v>557</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,49 +6751,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="D36" s="7">
-        <v>86123</v>
+        <v>48681</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>535</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>65</v>
+        <v>559</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="H36" s="7">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="I36" s="7">
-        <v>80737</v>
+        <v>42449</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="M36" s="7">
-        <v>269</v>
+        <v>166</v>
       </c>
       <c r="N36" s="7">
-        <v>166861</v>
+        <v>91130</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>541</v>
+        <v>459</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,49 +6802,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D37" s="7">
-        <v>18088</v>
+        <v>11775</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>436</v>
+        <v>567</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="H37" s="7">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I37" s="7">
-        <v>16786</v>
+        <v>5376</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>149</v>
+        <v>541</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="M37" s="7">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="N37" s="7">
-        <v>34875</v>
+        <v>17151</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>547</v>
+        <v>460</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>548</v>
+        <v>193</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>549</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,16 +6856,16 @@
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>718</v>
+        <v>634</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>230</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6406,28 +6874,28 @@
         <v>159</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>230</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>574</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>878</v>
+        <v>793</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,10 +6904,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D39" s="7">
-        <v>697171</v>
+        <v>368165</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -6451,10 +6919,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I39" s="7">
-        <v>1026008</v>
+        <v>608368</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -6466,10 +6934,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N39" s="7">
-        <v>1723179</v>
+        <v>976533</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -6483,55 +6951,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>273</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>1076</v>
+        <v>306</v>
       </c>
       <c r="D40" s="7">
-        <v>874389</v>
+        <v>185825</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="H40" s="7">
-        <v>2109</v>
+        <v>624</v>
       </c>
       <c r="I40" s="7">
-        <v>1359399</v>
+        <v>301431</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>166</v>
+        <v>579</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>38</v>
+        <v>581</v>
       </c>
       <c r="M40" s="7">
-        <v>3185</v>
+        <v>930</v>
       </c>
       <c r="N40" s="7">
-        <v>2233788</v>
+        <v>487256</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,49 +7008,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>1315</v>
+        <v>98</v>
       </c>
       <c r="D41" s="7">
-        <v>1300309</v>
+        <v>63020</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="H41" s="7">
-        <v>2077</v>
+        <v>185</v>
       </c>
       <c r="I41" s="7">
-        <v>1431937</v>
+        <v>86757</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="M41" s="7">
-        <v>3392</v>
+        <v>283</v>
       </c>
       <c r="N41" s="7">
-        <v>2732246</v>
+        <v>149777</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,49 +7059,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>783</v>
+        <v>46</v>
       </c>
       <c r="D42" s="7">
-        <v>903335</v>
+        <v>28809</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>571</v>
+        <v>68</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="H42" s="7">
-        <v>1006</v>
+        <v>57</v>
       </c>
       <c r="I42" s="7">
-        <v>861123</v>
+        <v>28916</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="M42" s="7">
-        <v>1789</v>
+        <v>103</v>
       </c>
       <c r="N42" s="7">
-        <v>1764458</v>
+        <v>57725</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>578</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,49 +7110,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="D43" s="7">
-        <v>216333</v>
+        <v>4557</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>579</v>
+        <v>492</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="H43" s="7">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="I43" s="7">
-        <v>134902</v>
+        <v>8137</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>584</v>
+        <v>382</v>
       </c>
       <c r="M43" s="7">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="N43" s="7">
-        <v>351235</v>
+        <v>12695</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>585</v>
+        <v>54</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>584</v>
+        <v>465</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,49 +7161,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>86549</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>587</v>
+        <v>230</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>588</v>
+        <v>232</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>589</v>
+        <v>424</v>
       </c>
       <c r="H44" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>10296</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>590</v>
+        <v>232</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="M44" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>96845</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>592</v>
+        <v>230</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>593</v>
+        <v>232</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,63 +7212,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>457</v>
+      </c>
+      <c r="D45" s="7">
+        <v>282211</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>880</v>
+      </c>
+      <c r="I45" s="7">
+        <v>425241</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N45" s="7">
+        <v>707452</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1076</v>
+      </c>
+      <c r="D46" s="7">
+        <v>834803</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2109</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1355346</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M46" s="7">
+        <v>3185</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2190148</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1315</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1273970</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H47" s="7">
+        <v>2077</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1318430</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="M47" s="7">
+        <v>3392</v>
+      </c>
+      <c r="N47" s="7">
+        <v>2592400</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>783</v>
+      </c>
+      <c r="D48" s="7">
+        <v>869637</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1006</v>
+      </c>
+      <c r="I48" s="7">
+        <v>852439</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1789</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1722076</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>169</v>
+      </c>
+      <c r="D49" s="7">
+        <v>199870</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="H49" s="7">
+        <v>144</v>
+      </c>
+      <c r="I49" s="7">
+        <v>117243</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="M49" s="7">
+        <v>313</v>
+      </c>
+      <c r="N49" s="7">
+        <v>317113</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>28</v>
+      </c>
+      <c r="D50" s="7">
+        <v>277391</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="H50" s="7">
+        <v>14</v>
+      </c>
+      <c r="I50" s="7">
+        <v>9075</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="M50" s="7">
+        <v>42</v>
+      </c>
+      <c r="N50" s="7">
+        <v>286466</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3371</v>
       </c>
-      <c r="D45" s="7">
-        <v>3380914</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3455671</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>5350</v>
       </c>
-      <c r="I45" s="7">
-        <v>3797657</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3652534</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>8721</v>
       </c>
-      <c r="N45" s="7">
-        <v>7178572</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>319</v>
+      <c r="N51" s="7">
+        <v>7108204</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
